--- a/people.xlsx
+++ b/people.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,13 +418,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Anuj</v>
+        <v>Adam</v>
       </c>
       <c r="B2" t="str">
-        <v>Pandey</v>
+        <v>Smith</v>
       </c>
       <c r="C2" t="str">
-        <v>anuzj007@gmail.com</v>
+        <v>smith@gmail.com</v>
       </c>
       <c r="D2" t="str">
         <v>sports</v>
@@ -432,21 +432,35 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Anuz</v>
+        <v>Daniel</v>
       </c>
       <c r="B3" t="str">
-        <v>Yednap</v>
+        <v>Ward</v>
       </c>
       <c r="C3" t="str">
-        <v>anuj2045@gmail.com</v>
+        <v>daniel@gmail.com</v>
       </c>
       <c r="D3" t="str">
         <v>soccer</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Hilary</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Jones</v>
+      </c>
+      <c r="C4" t="str">
+        <v>hjones@gmail.com</v>
+      </c>
+      <c r="D4" t="str">
+        <v>movie</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>